--- a/code/random_forest-outfiles/RFECV select 6 from 12/RFECV select 6 from 12.xlsx
+++ b/code/random_forest-outfiles/RFECV select 6 from 12/RFECV select 6 from 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 6 from 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B9E50C-BF40-47E9-8046-145E85A3A3B9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEDC874-09A2-429D-9D96-827AE4D991F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFECV_RF_2021.04.29-13.30.08" sheetId="1" r:id="rId1"/>
@@ -1184,30 +1184,30 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$2:$AW$2</c:f>
+              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$15:$AW$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.71626598799999996</c:v>
+                  <c:v>0.71650400924999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.709501669</c:v>
+                  <c:v>0.70947379474999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70571094499999998</c:v>
+                  <c:v>0.70575313891666669</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.70220131299999999</c:v>
+                  <c:v>0.70218185716666659</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69946177099999995</c:v>
+                  <c:v>0.69938973550000005</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.69906862700000005</c:v>
+                  <c:v>0.69912160475000007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.69801046</c:v>
+                  <c:v>0.69794408125000007</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1216,590 +1216,6 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$3:$AW$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71705442200000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70945389400000003</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70576007900000004</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70235833000000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69955002399999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69905911799999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69789020700000004</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$4:$AW$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71624961300000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70945969399999997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70575359999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70217728000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69963271199999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69914209900000002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69793037999999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$5:$AW$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71704782499999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.709498619</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70571065300000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70196493199999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69917547499999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69911562999999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69794440599999996</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$6:$AW$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71703370700000002</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70945671099999996</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70580647100000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70218072099999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69953385700000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69914843699999996</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69797114900000001</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="5"/>
-          <c:order val="5"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$7:$AW$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.716261123</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70946956900000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70576340999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.702208575</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.699135705</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69911503399999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69788518200000005</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000005-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="6"/>
-          <c:order val="6"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$8:$AW$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71623924100000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70950267199999995</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70577503200000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70288655300000003</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.70007266000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69912594400000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69794706299999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000006-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="7"/>
-          <c:order val="7"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$9:$AW$9</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71701662899999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70945076900000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70575701000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70214956399999995</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69919807700000003</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69915464199999999</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69792087599999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000007-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="8"/>
-          <c:order val="8"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$10:$AW$10</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71624119799999997</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70951297499999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70574385799999995</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70174504599999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.699239214</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69914989400000005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69796975900000002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000008-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="9"/>
-          <c:order val="9"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$11:$AW$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71622640599999998</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70946427000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70575306299999996</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.702336403</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69914048799999995</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69912329299999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.697936153</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="10"/>
-          <c:order val="10"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$12:$AW$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71622890400000006</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70944754399999999</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.705763268</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70216141200000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69905185700000005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69910377700000004</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69792065999999997</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-9796-403B-93FA-3D4BD6C5278A}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="11"/>
-          <c:order val="11"/>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AQ$13:$AW$13</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.71618305500000001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.70946715100000002</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.70574027800000005</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.70181215699999999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.69948498599999998</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.69915276199999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.69800267999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000B-9796-403B-93FA-3D4BD6C5278A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3137,16 +2553,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>52</xdr:col>
-      <xdr:colOff>190499</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>50</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3473,8 +2889,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AK10" sqref="AK10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5418,52 +4834,80 @@
     </row>
     <row r="15" spans="1:49" x14ac:dyDescent="0.25">
       <c r="AE15">
-        <f>AVERAGE(AE2:AE13)</f>
+        <f t="shared" ref="AE15:AP15" si="0">AVERAGE(AE2:AE13)</f>
         <v>1</v>
       </c>
       <c r="AF15">
-        <f>AVERAGE(AF2:AF13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AG15">
-        <f>AVERAGE(AG2:AG13)</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="AH15">
-        <f>AVERAGE(AH2:AH13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AI15">
-        <f>AVERAGE(AI2:AI13)</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="AJ15">
-        <f>AVERAGE(AJ2:AJ13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AK15">
-        <f>AVERAGE(AK2:AK13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AL15">
-        <f>AVERAGE(AL2:AL13)</f>
+        <f t="shared" si="0"/>
         <v>4.083333333333333</v>
       </c>
       <c r="AM15">
-        <f>AVERAGE(AM2:AM13)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
       <c r="AN15">
-        <f>AVERAGE(AN2:AN13)</f>
+        <f t="shared" si="0"/>
         <v>4.916666666666667</v>
       </c>
       <c r="AO15">
-        <f>AVERAGE(AO2:AO13)</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="AP15">
-        <f>AVERAGE(AP2:AP13)</f>
+        <f t="shared" si="0"/>
         <v>3</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" ref="AQ15:AW15" si="1">AVERAGE(AQ2:AQ13)</f>
+        <v>0.71650400924999991</v>
+      </c>
+      <c r="AR15">
+        <f t="shared" si="1"/>
+        <v>0.70947379474999994</v>
+      </c>
+      <c r="AS15">
+        <f t="shared" si="1"/>
+        <v>0.70575313891666669</v>
+      </c>
+      <c r="AT15">
+        <f t="shared" si="1"/>
+        <v>0.70218185716666659</v>
+      </c>
+      <c r="AU15">
+        <f t="shared" si="1"/>
+        <v>0.69938973550000005</v>
+      </c>
+      <c r="AV15">
+        <f t="shared" si="1"/>
+        <v>0.69912160475000007</v>
+      </c>
+      <c r="AW15">
+        <f t="shared" si="1"/>
+        <v>0.69794408125000007</v>
       </c>
     </row>
   </sheetData>

--- a/code/random_forest-outfiles/RFECV select 6 from 12/RFECV select 6 from 12.xlsx
+++ b/code/random_forest-outfiles/RFECV select 6 from 12/RFECV select 6 from 12.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\GitHub\Research-Spring2021\code\random_forest-outfiles\RFECV select 6 from 12\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCEDC874-09A2-429D-9D96-827AE4D991F9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{114623A7-1F34-4EF2-BD91-41E2186AC511}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFECV_RF_2021.04.29-13.30.08" sheetId="1" r:id="rId1"/>
@@ -1414,6 +1414,376 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AB$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>test_set_r2_score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$Y$2:$Y$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.71706041600000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71705442200000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.717052142</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.71704782499999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.71703370700000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.71702970399999999</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.71702317400000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.71701662899999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.717014068</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.71701314199999999</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.71700139900000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.71698692500000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'RFECV_RF_2021.04.29-13.30.08'!$AB$2:$AB$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.72188143100000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.72181750300000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.72180007700000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.72178540899999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.72187352999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.72179929399999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.72185294600000005</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.721787654</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.721824672</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.72182260600000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.72185389700000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.72183021599999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4651-4D3D-8D8A-C06CD543C159}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="405608752"/>
+        <c:axId val="405610832"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="405608752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405610832"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="405610832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="405608752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -1494,6 +1864,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2494,6 +2904,522 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2582,6 +3508,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>157162</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E22F63F9-94FF-4FB7-B9F0-BDD93DECEEB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2889,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AW15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y13" activeCellId="1" sqref="AB1:AB13 Y1:Y13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
